--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>0.5453776865001148</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.04145771595389647</v>
+        <v>-0.7976031984000098</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.8924479562386289</v>
+        <v>-6.170514117037273</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-2.404654578360299</v>
+        <v>-8.396348489509153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.3297942638550877</v>
+        <v>-0.2290082001396909</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.7615317314380032</v>
+        <v>-4.327930935900004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.9790066301314404</v>
+        <v>1.406827509327035</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.1120093655990306</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.5532507573207335</v>
+        <v>1.153683074671208</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>-1.194610791899997</v>
+        <v>3.648892256099945</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.6748030868036659</v>
+        <v>0.2186142574756467</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.4006004000999264</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.2250312265800636</v>
+        <v>-0.8522658067264599</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3.551690943899999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.0002502501000090085</v>
+        <v>-0.2262139320475365</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.4006004000999486</v>
+        <v>-0.7976031983999876</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.1298577227344833</v>
+        <v>-0.6258176826215101</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-0.3994003999000073</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.1858323231797465</v>
+        <v>0.3239252862367037</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.2040282399218496</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.3820358888032116</v>
+        <v>0.5738128002843901</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.3654376652292513</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.009162014723362866</v>
+        <v>-0.4781004700720293</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.710612081322648</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.8543873845781813</v>
+        <v>-1.197849743493773</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-2.152525688537499</v>
+        <v>-3.161804390399992</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5919153143106204</v>
+        <v>1.064698711638945</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-2.102255222663152</v>
+        <v>-2.540956581357878</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.2260788127546598</v>
+        <v>-1.524103236349472</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.9881265817586415</v>
+        <v>-1.240907591477092</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.6443373634439364</v>
+        <v>0.2854413827033664</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.3280907749225737</v>
+        <v>-0.2470349027347551</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.2841106449979369</v>
+        <v>1.118108578853261</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.436896861364589</v>
+        <v>1.532721825047534</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.1054381243400848</v>
+        <v>-1.490505436658163</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.6256487702510527</v>
+        <v>-0.3349088112516219</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.064698711638945</v>
+        <v>1.098150690304212</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-2.540956581357878</v>
+        <v>-2.378486270400015</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.524103236349472</v>
+        <v>-2.376072963557363</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-1.240907591477092</v>
+        <v>-5.483493758400004</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.2854413827033664</v>
+        <v>0.8992049163950133</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.2470349027347551</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.118108578853261</v>
+        <v>1.052599339874627</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.532721825047534</v>
+        <v>1.205410808099927</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.490505436658163</v>
+        <v>-0.71096081119989</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.3349088112516219</v>
+        <v>3.648892256099967</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>0.5453776865001148</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-0.7976031984000098</v>
+        <v>-0.7976031983999876</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +443,7 @@
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-8.396348489509153</v>
+        <v>-8.396348489509165</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -491,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.153683074671208</v>
+        <v>1.15368307467123</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>3.648892256099945</v>
+        <v>3.648892256099967</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.2186142574756467</v>
+        <v>0.2186142574756245</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.4006004000999708</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-3.551690943899999</v>
+        <v>-3.55169094390001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.2262139320475365</v>
+        <v>-0.2262139320475476</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -565,7 +562,7 @@
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.3994003999000073</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.3239252862367037</v>
+        <v>0.3239252862367259</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.3994003999000184</v>
+        <v>-0.3994003998999962</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.4781004700720293</v>
+        <v>-0.4781004700720182</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.8024032015999882</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-1.197849743493773</v>
+        <v>-1.197849743493751</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-3.161804390399992</v>
+        <v>-3.161804390400014</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.098150690304212</v>
+        <v>1.098150690304189</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-2.378486270400015</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-2.376072963557363</v>
+        <v>-2.376072963557374</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.052599339874627</v>
+        <v>1.052599339874583</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.205410808099927</v>
+        <v>1.205410808099971</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.71096081119989</v>
+        <v>-0.7109608111999011</v>
       </c>
       <c r="D19">
         <v>2026</v>
